--- a/Limitless/LimitLess/Files/excel_format.xlsx
+++ b/Limitless/LimitLess/Files/excel_format.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Please select a subject</t>
   </si>
@@ -72,55 +72,88 @@
     <t>1 - Grammar</t>
   </si>
   <si>
-    <t>Organization Name 1</t>
-  </si>
-  <si>
-    <t>Subject 2</t>
-  </si>
-  <si>
-    <t>Topic 3</t>
-  </si>
-  <si>
-    <t>Objective 4</t>
-  </si>
-  <si>
-    <t>Sub-Objective 5</t>
-  </si>
-  <si>
-    <t>Question Content 6</t>
-  </si>
-  <si>
-    <t>Question Type 7</t>
-  </si>
-  <si>
-    <t>Question Difficulty 8</t>
-  </si>
-  <si>
-    <t>Correct_Answer 9</t>
-  </si>
-  <si>
-    <t>Correct_Anwser_Explanation 10</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_1 11</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_1_Explanation 12</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_2 13</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_2_Explanation 14</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_3 15</t>
-  </si>
-  <si>
-    <t>Wrong_Answer_3_Explanation 16</t>
-  </si>
-  <si>
-    <t>Attached File 17</t>
+    <t>Attached File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Objective Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question Content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question Difficulty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer Content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer Code </t>
+  </si>
+  <si>
+    <t>1 - sub objective 1</t>
+  </si>
+  <si>
+    <t>2 - sub objective 2</t>
+  </si>
+  <si>
+    <t>3 - sub objective 3</t>
+  </si>
+  <si>
+    <t>1 - Subobjective</t>
+  </si>
+  <si>
+    <t>2 - Objective</t>
+  </si>
+  <si>
+    <t>3 - Multiple Choices</t>
+  </si>
+  <si>
+    <t>1 - High</t>
+  </si>
+  <si>
+    <t>2 - Medium</t>
+  </si>
+  <si>
+    <t>3 - Low</t>
+  </si>
+  <si>
+    <t>Question Is Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anwser Explanation </t>
+  </si>
+  <si>
+    <t>Answer Is Active</t>
+  </si>
+  <si>
+    <t>Answer Is Correct</t>
+  </si>
+  <si>
+    <t>1 - Math</t>
+  </si>
+  <si>
+    <t>2 - English</t>
+  </si>
+  <si>
+    <t>3 - Science</t>
   </si>
 </sst>
 </file>
@@ -475,101 +508,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="27.1640625" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" customWidth="1"/>
-    <col min="20" max="20" width="25.1640625" customWidth="1"/>
-    <col min="21" max="21" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" customWidth="1"/>
+    <col min="24" max="25" width="21.5" customWidth="1"/>
+    <col min="26" max="26" width="24.5" customWidth="1"/>
+    <col min="27" max="27" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="1041" yWindow="247" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Question Type Explanation" prompt="0: Fill in Blank. The question content &lt;= 500 characters.  1: Long strings. The question content &gt; 500 characters. 2: Strings with image. The qustion content &lt;= 500 characters. Image Attached 3: Image Only." sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attached File Explanation" prompt="If the question requires an image, please enter the image name. Otherwise, leave the cell empty" sqref="Q1:Q1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0: easy_x000a_1: medium_x000a_2: difficult" sqref="H1:H1048576"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1041" yWindow="247" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1041" yWindow="247" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Drop down items'!$A$1:$A$4</xm:f>
@@ -600,9 +658,21 @@
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Question Type Explanation" prompt="0: Fill in Blank. The question content &lt;= 500 characters.  1: Long strings. The question content &gt; 500 characters. 2: Strings with image. The qustion content &lt;= 500 characters. Image Attached 3: Image Only.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Drop down items'!$G$1:$G$5</xm:f>
+            <xm:f>'Drop down items'!$H$1:$H$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:O1048576 S2:T1048576 X2:Y1048576 J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down items'!$F$1:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down items'!$G$1:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
@@ -614,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +701,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,13 +723,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -667,59 +740,57 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Limitless/LimitLess/Files/excel_format.xlsx
+++ b/Limitless/LimitLess/Files/excel_format.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Erin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADSIXPS15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15456"/>
   </bookViews>
   <sheets>
     <sheet name="Upload File" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,9 +189,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,119 +521,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="20" width="21.5" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" customWidth="1"/>
-    <col min="24" max="25" width="21.5" customWidth="1"/>
-    <col min="26" max="26" width="24.5" customWidth="1"/>
-    <col min="27" max="27" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="21.44140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="21.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="21.44140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="33.77734375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pbGed6EHLGlsMPhUJ8HqKfHEEtdyi/YzgWQ4kEYOT4aycPUh8h5CCOXW0oMuqBPLQLG8Jab/hSnALWW9u98M6A==" saltValue="RpQXYio+JgFRYuE6ETqSNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -662,7 +675,7 @@
           <x14:formula1>
             <xm:f>'Drop down items'!$H$1:$H$2</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:O1048576 S2:T1048576 X2:Y1048576 J2:J1048576</xm:sqref>
+          <xm:sqref>O2:P1048576 T2:U1048576 Y2:Z1048576 J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -690,18 +703,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -753,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -773,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
